--- a/biology/Botanique/Hechtia/Hechtia.xlsx
+++ b/biology/Botanique/Hechtia/Hechtia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hechtia est un genre de plantes de la famille des Bromeliaceae, dont les espèces se rencontrent en Amérique depuis le Texas jusqu'au Nicaragua.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom de Julius Gottfried Conrad Hecht, conseiller du roi de Prusse.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À part H. gayorum, toutes les espèces de ce genre sont dioïques.
 </t>
@@ -573,12 +589,49 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon ITIS :
 Hechtia glomerata Zucc.
-Hechtia texensis S. Wats.
-Espèces
+Hechtia texensis S. Wats.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hechtia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hechtia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Hechtia argentea Baker
 Hechtia caerulea (Matuda) L.B. Smith
 Hechtia capituligera Mez
